--- a/RES/exo_dataset_P001.xlsx
+++ b/RES/exo_dataset_P001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\ID-Cards-Generator\RES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017AFFE2-D318-4907-9906-71319760308C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36178A90-63CE-4A22-8C36-81017B0A1F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="992">
   <si>
     <t>first_name</t>
   </si>
@@ -112,24 +112,12 @@
     <t>https://robohash.org/debitisinciduntdolore.png?size=300x300&amp;set=set1</t>
   </si>
   <si>
-    <t>Jameson</t>
-  </si>
-  <si>
-    <t>Hugueville</t>
-  </si>
-  <si>
     <t>Teacher</t>
   </si>
   <si>
-    <t>5/12/1991</t>
-  </si>
-  <si>
     <t>1/2/2019</t>
   </si>
   <si>
-    <t>https://robohash.org/facilisrerumad.png?size=300x300&amp;set=set1</t>
-  </si>
-  <si>
     <t>Lynnett</t>
   </si>
   <si>
@@ -2993,6 +2981,21 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>Jagankumar</t>
+  </si>
+  <si>
+    <t>Sriramalu</t>
+  </si>
+  <si>
+    <t>Talker</t>
+  </si>
+  <si>
+    <t>15/06/1977</t>
+  </si>
+  <si>
+    <t>25/3/2022</t>
   </si>
 </sst>
 </file>
@@ -3040,12 +3043,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3077,7 +3080,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3376,23 +3379,23 @@
   <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3413,7 +3416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5591927432</v>
       </c>
@@ -3436,7 +3439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5071682362</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6295398980</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3718164078</v>
       </c>
@@ -3505,4515 +3508,4515 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2261412840</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>987</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>988</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>989</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>990</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>991</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7226393395</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1088777325</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4971860363</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9695067972</v>
       </c>
       <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4931427782</v>
       </c>
       <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2561912337</v>
       </c>
       <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4256157018</v>
       </c>
       <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2055115286</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7984595380</v>
       </c>
       <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G15" t="s">
         <v>82</v>
       </c>
-      <c r="D15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3386631134</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5253322272</v>
       </c>
       <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G17" t="s">
         <v>93</v>
       </c>
-      <c r="D17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4738968260</v>
       </c>
       <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1425469388</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9326331857</v>
       </c>
       <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C20" t="s">
+      <c r="G20" t="s">
         <v>110</v>
       </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2860174680</v>
       </c>
       <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
+      <c r="G21" t="s">
         <v>116</v>
       </c>
-      <c r="D21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7461604813</v>
       </c>
       <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C22" t="s">
+      <c r="G22" t="s">
         <v>122</v>
       </c>
-      <c r="D22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7341605200</v>
       </c>
       <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
         <v>128</v>
       </c>
-      <c r="D23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4777281970</v>
       </c>
       <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C24" t="s">
+      <c r="G24" t="s">
         <v>134</v>
       </c>
-      <c r="D24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4157762282</v>
       </c>
       <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
         <v>140</v>
       </c>
-      <c r="D25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1081781408</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7557982436</v>
       </c>
       <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" t="s">
         <v>150</v>
       </c>
-      <c r="D27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8352361872</v>
       </c>
       <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
         <v>155</v>
       </c>
-      <c r="C28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8982911871</v>
       </c>
       <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C29" t="s">
+      <c r="G29" t="s">
         <v>161</v>
       </c>
-      <c r="D29" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1890373168</v>
       </c>
       <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
         <v>166</v>
       </c>
-      <c r="C30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>597199779</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8643041742</v>
       </c>
       <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" t="s">
         <v>176</v>
       </c>
-      <c r="C32" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" t="s">
-        <v>178</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7399610088</v>
       </c>
       <c r="B33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C33" t="s">
+      <c r="G33" t="s">
         <v>182</v>
       </c>
-      <c r="D33" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" t="s">
-        <v>184</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5255564982</v>
       </c>
       <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G34" t="s">
         <v>188</v>
       </c>
-      <c r="D34" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8557336683</v>
       </c>
       <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C35" t="s">
+      <c r="G35" t="s">
         <v>194</v>
       </c>
-      <c r="D35" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" t="s">
-        <v>196</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>6784154681</v>
       </c>
       <c r="B36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" t="s">
         <v>199</v>
       </c>
-      <c r="C36" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8124097216</v>
       </c>
       <c r="B37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s">
         <v>204</v>
       </c>
-      <c r="C37" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" t="s">
-        <v>206</v>
-      </c>
-      <c r="E37" t="s">
-        <v>207</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6206125874</v>
       </c>
       <c r="B38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C38" t="s">
+      <c r="G38" t="s">
         <v>210</v>
       </c>
-      <c r="D38" t="s">
-        <v>211</v>
-      </c>
-      <c r="E38" t="s">
-        <v>212</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4808909243</v>
       </c>
       <c r="B39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C39" t="s">
+      <c r="G39" t="s">
         <v>216</v>
       </c>
-      <c r="D39" t="s">
-        <v>217</v>
-      </c>
-      <c r="E39" t="s">
-        <v>218</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4958537813</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G40" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7453768691</v>
       </c>
       <c r="B41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" t="s">
         <v>225</v>
       </c>
-      <c r="C41" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" t="s">
-        <v>227</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G41" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1656263904</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" t="s">
         <v>230</v>
       </c>
-      <c r="D42" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" t="s">
-        <v>232</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G42" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>9636306052</v>
       </c>
       <c r="B43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C43" t="s">
+      <c r="G43" t="s">
         <v>236</v>
       </c>
-      <c r="D43" t="s">
-        <v>237</v>
-      </c>
-      <c r="E43" t="s">
-        <v>238</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G43" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2086714998</v>
       </c>
       <c r="B44" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C44" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G44" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4276341787</v>
       </c>
       <c r="B45" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" t="s">
+        <v>243</v>
+      </c>
+      <c r="D45" t="s">
+        <v>244</v>
+      </c>
+      <c r="E45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G45" t="s">
         <v>246</v>
       </c>
-      <c r="C45" t="s">
-        <v>247</v>
-      </c>
-      <c r="D45" t="s">
-        <v>248</v>
-      </c>
-      <c r="E45" t="s">
-        <v>249</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G45" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5348552712</v>
       </c>
       <c r="B46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" t="s">
+        <v>248</v>
+      </c>
+      <c r="D46" t="s">
+        <v>249</v>
+      </c>
+      <c r="E46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C46" t="s">
+      <c r="G46" t="s">
         <v>252</v>
       </c>
-      <c r="D46" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" t="s">
-        <v>254</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G46" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>9605282054</v>
       </c>
       <c r="B47" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" t="s">
         <v>257</v>
       </c>
-      <c r="C47" t="s">
-        <v>258</v>
-      </c>
-      <c r="D47" t="s">
-        <v>259</v>
-      </c>
-      <c r="E47" t="s">
-        <v>260</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G47" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47911050</v>
       </c>
       <c r="B48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" t="s">
+        <v>261</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" t="s">
         <v>262</v>
       </c>
-      <c r="C48" t="s">
-        <v>263</v>
-      </c>
-      <c r="D48" t="s">
-        <v>264</v>
-      </c>
-      <c r="E48" t="s">
-        <v>265</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G48" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2573871355</v>
       </c>
       <c r="B49" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C49" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7540411619</v>
       </c>
       <c r="B50" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" t="s">
+        <v>268</v>
+      </c>
+      <c r="D50" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C50" t="s">
+      <c r="G50" t="s">
         <v>272</v>
       </c>
-      <c r="D50" t="s">
-        <v>273</v>
-      </c>
-      <c r="E50" t="s">
-        <v>274</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G50" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>267997078</v>
       </c>
       <c r="B51" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51" t="s">
+        <v>275</v>
+      </c>
+      <c r="E51" t="s">
+        <v>276</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C51" t="s">
+      <c r="G51" t="s">
         <v>278</v>
       </c>
-      <c r="D51" t="s">
-        <v>279</v>
-      </c>
-      <c r="E51" t="s">
-        <v>280</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G51" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1036194337</v>
       </c>
       <c r="B52" t="s">
+        <v>279</v>
+      </c>
+      <c r="C52" t="s">
+        <v>280</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" t="s">
+        <v>281</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G52" t="s">
         <v>283</v>
       </c>
-      <c r="C52" t="s">
-        <v>284</v>
-      </c>
-      <c r="D52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s">
-        <v>285</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G52" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7056393101</v>
       </c>
       <c r="B53" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" t="s">
+        <v>285</v>
+      </c>
+      <c r="D53" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" t="s">
+        <v>286</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G53" t="s">
         <v>288</v>
       </c>
-      <c r="C53" t="s">
-        <v>289</v>
-      </c>
-      <c r="D53" t="s">
-        <v>211</v>
-      </c>
-      <c r="E53" t="s">
-        <v>290</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G53" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>336066538</v>
       </c>
       <c r="B54" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" t="s">
+        <v>290</v>
+      </c>
+      <c r="D54" t="s">
+        <v>291</v>
+      </c>
+      <c r="E54" t="s">
+        <v>292</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="C54" t="s">
-        <v>294</v>
-      </c>
-      <c r="D54" t="s">
-        <v>295</v>
-      </c>
-      <c r="E54" t="s">
-        <v>296</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G54" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3131368071</v>
       </c>
       <c r="B55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C55" t="s">
+        <v>295</v>
+      </c>
+      <c r="D55" t="s">
+        <v>296</v>
+      </c>
+      <c r="E55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C55" t="s">
+      <c r="G55" t="s">
         <v>299</v>
       </c>
-      <c r="D55" t="s">
-        <v>300</v>
-      </c>
-      <c r="E55" t="s">
-        <v>301</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G55" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4181676668</v>
       </c>
       <c r="B56" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C56" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E56" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G56" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7638695666</v>
       </c>
       <c r="B57" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E57" t="s">
+        <v>307</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G57" t="s">
         <v>308</v>
       </c>
-      <c r="C57" t="s">
-        <v>309</v>
-      </c>
-      <c r="D57" t="s">
-        <v>310</v>
-      </c>
-      <c r="E57" t="s">
-        <v>311</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G57" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4168346641</v>
       </c>
       <c r="B58" t="s">
+        <v>309</v>
+      </c>
+      <c r="C58" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" t="s">
+        <v>311</v>
+      </c>
+      <c r="E58" t="s">
+        <v>312</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G58" t="s">
         <v>313</v>
       </c>
-      <c r="C58" t="s">
-        <v>314</v>
-      </c>
-      <c r="D58" t="s">
-        <v>315</v>
-      </c>
-      <c r="E58" t="s">
-        <v>316</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2936500672</v>
       </c>
       <c r="B59" t="s">
+        <v>314</v>
+      </c>
+      <c r="C59" t="s">
+        <v>315</v>
+      </c>
+      <c r="D59" t="s">
+        <v>316</v>
+      </c>
+      <c r="E59" t="s">
+        <v>317</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C59" t="s">
+      <c r="G59" t="s">
         <v>319</v>
       </c>
-      <c r="D59" t="s">
-        <v>320</v>
-      </c>
-      <c r="E59" t="s">
-        <v>321</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G59" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1331444659</v>
       </c>
       <c r="B60" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C60" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D60" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E60" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G60" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2163139395</v>
       </c>
       <c r="B61" t="s">
+        <v>324</v>
+      </c>
+      <c r="C61" t="s">
+        <v>325</v>
+      </c>
+      <c r="D61" t="s">
+        <v>326</v>
+      </c>
+      <c r="E61" t="s">
+        <v>327</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C61" t="s">
+      <c r="G61" t="s">
         <v>329</v>
       </c>
-      <c r="D61" t="s">
-        <v>330</v>
-      </c>
-      <c r="E61" t="s">
-        <v>331</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G61" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4741428397</v>
       </c>
       <c r="B62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" t="s">
+        <v>331</v>
+      </c>
+      <c r="D62" t="s">
+        <v>332</v>
+      </c>
+      <c r="E62" t="s">
+        <v>333</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C62" t="s">
+      <c r="G62" t="s">
         <v>335</v>
       </c>
-      <c r="D62" t="s">
-        <v>336</v>
-      </c>
-      <c r="E62" t="s">
-        <v>337</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G62" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6741398139</v>
       </c>
       <c r="B63" t="s">
+        <v>336</v>
+      </c>
+      <c r="C63" t="s">
+        <v>337</v>
+      </c>
+      <c r="D63" t="s">
+        <v>338</v>
+      </c>
+      <c r="E63" t="s">
+        <v>339</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G63" t="s">
         <v>340</v>
       </c>
-      <c r="C63" t="s">
-        <v>341</v>
-      </c>
-      <c r="D63" t="s">
-        <v>342</v>
-      </c>
-      <c r="E63" t="s">
-        <v>343</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G63" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1942010834</v>
       </c>
       <c r="B64" t="s">
+        <v>341</v>
+      </c>
+      <c r="C64" t="s">
+        <v>342</v>
+      </c>
+      <c r="D64" t="s">
+        <v>343</v>
+      </c>
+      <c r="E64" t="s">
+        <v>344</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" t="s">
         <v>345</v>
       </c>
-      <c r="C64" t="s">
-        <v>346</v>
-      </c>
-      <c r="D64" t="s">
-        <v>347</v>
-      </c>
-      <c r="E64" t="s">
-        <v>348</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G64" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3240486393</v>
       </c>
       <c r="B65" t="s">
+        <v>346</v>
+      </c>
+      <c r="C65" t="s">
+        <v>347</v>
+      </c>
+      <c r="D65" t="s">
+        <v>348</v>
+      </c>
+      <c r="E65" t="s">
+        <v>349</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C65" t="s">
+      <c r="G65" t="s">
         <v>351</v>
       </c>
-      <c r="D65" t="s">
-        <v>352</v>
-      </c>
-      <c r="E65" t="s">
-        <v>353</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G65" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>8357549683</v>
       </c>
       <c r="B66" t="s">
+        <v>352</v>
+      </c>
+      <c r="C66" t="s">
+        <v>353</v>
+      </c>
+      <c r="D66" t="s">
+        <v>354</v>
+      </c>
+      <c r="E66" t="s">
+        <v>355</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C66" t="s">
+      <c r="G66" t="s">
         <v>357</v>
       </c>
-      <c r="D66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E66" t="s">
-        <v>359</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G66" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6493717213</v>
       </c>
       <c r="B67" t="s">
+        <v>358</v>
+      </c>
+      <c r="C67" t="s">
+        <v>359</v>
+      </c>
+      <c r="D67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67" t="s">
+        <v>360</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G67" t="s">
         <v>362</v>
       </c>
-      <c r="C67" t="s">
-        <v>363</v>
-      </c>
-      <c r="D67" t="s">
-        <v>253</v>
-      </c>
-      <c r="E67" t="s">
-        <v>364</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G67" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7529462385</v>
       </c>
       <c r="B68" t="s">
+        <v>363</v>
+      </c>
+      <c r="C68" t="s">
+        <v>364</v>
+      </c>
+      <c r="D68" t="s">
+        <v>365</v>
+      </c>
+      <c r="E68" t="s">
+        <v>366</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G68" t="s">
         <v>367</v>
       </c>
-      <c r="C68" t="s">
-        <v>368</v>
-      </c>
-      <c r="D68" t="s">
-        <v>369</v>
-      </c>
-      <c r="E68" t="s">
-        <v>370</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G68" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7540430982</v>
       </c>
       <c r="B69" t="s">
+        <v>368</v>
+      </c>
+      <c r="C69" t="s">
+        <v>369</v>
+      </c>
+      <c r="D69" t="s">
+        <v>370</v>
+      </c>
+      <c r="E69" t="s">
+        <v>371</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" t="s">
         <v>372</v>
       </c>
-      <c r="C69" t="s">
-        <v>373</v>
-      </c>
-      <c r="D69" t="s">
-        <v>374</v>
-      </c>
-      <c r="E69" t="s">
-        <v>375</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G69" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>8116956027</v>
       </c>
       <c r="B70" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C70" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D70" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E70" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G70" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>9499648844</v>
       </c>
       <c r="B71" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C71" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D71" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E71" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G71" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5090521018</v>
       </c>
       <c r="B72" t="s">
+        <v>381</v>
+      </c>
+      <c r="C72" t="s">
+        <v>382</v>
+      </c>
+      <c r="D72" t="s">
+        <v>383</v>
+      </c>
+      <c r="E72" t="s">
+        <v>384</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G72" t="s">
         <v>385</v>
       </c>
-      <c r="C72" t="s">
-        <v>386</v>
-      </c>
-      <c r="D72" t="s">
-        <v>387</v>
-      </c>
-      <c r="E72" t="s">
-        <v>388</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G72" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3287021028</v>
       </c>
       <c r="B73" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C73" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E73" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G73" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>687948576</v>
       </c>
       <c r="B74" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C74" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G74" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>6557768093</v>
       </c>
       <c r="B75" t="s">
+        <v>393</v>
+      </c>
+      <c r="C75" t="s">
+        <v>394</v>
+      </c>
+      <c r="D75" t="s">
+        <v>395</v>
+      </c>
+      <c r="E75" t="s">
+        <v>396</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C75" t="s">
+      <c r="G75" t="s">
         <v>398</v>
       </c>
-      <c r="D75" t="s">
-        <v>399</v>
-      </c>
-      <c r="E75" t="s">
-        <v>400</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G75" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8644485156</v>
       </c>
       <c r="B76" t="s">
+        <v>399</v>
+      </c>
+      <c r="C76" t="s">
+        <v>400</v>
+      </c>
+      <c r="D76" t="s">
+        <v>401</v>
+      </c>
+      <c r="E76" t="s">
+        <v>322</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G76" t="s">
         <v>403</v>
       </c>
-      <c r="C76" t="s">
-        <v>404</v>
-      </c>
-      <c r="D76" t="s">
-        <v>405</v>
-      </c>
-      <c r="E76" t="s">
-        <v>326</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="G76" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>340390999</v>
       </c>
       <c r="B77" t="s">
+        <v>404</v>
+      </c>
+      <c r="C77" t="s">
+        <v>405</v>
+      </c>
+      <c r="D77" t="s">
+        <v>406</v>
+      </c>
+      <c r="E77" t="s">
+        <v>407</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C77" t="s">
+      <c r="G77" t="s">
         <v>409</v>
       </c>
-      <c r="D77" t="s">
-        <v>410</v>
-      </c>
-      <c r="E77" t="s">
-        <v>411</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G77" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5513700816</v>
       </c>
       <c r="B78" t="s">
+        <v>410</v>
+      </c>
+      <c r="C78" t="s">
+        <v>411</v>
+      </c>
+      <c r="D78" t="s">
+        <v>412</v>
+      </c>
+      <c r="E78" t="s">
+        <v>413</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C78" t="s">
+      <c r="G78" t="s">
         <v>415</v>
       </c>
-      <c r="D78" t="s">
-        <v>416</v>
-      </c>
-      <c r="E78" t="s">
-        <v>417</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G78" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5730223536</v>
       </c>
       <c r="B79" t="s">
+        <v>416</v>
+      </c>
+      <c r="C79" t="s">
+        <v>417</v>
+      </c>
+      <c r="D79" t="s">
+        <v>255</v>
+      </c>
+      <c r="E79" t="s">
+        <v>418</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G79" t="s">
         <v>420</v>
       </c>
-      <c r="C79" t="s">
-        <v>421</v>
-      </c>
-      <c r="D79" t="s">
-        <v>259</v>
-      </c>
-      <c r="E79" t="s">
-        <v>422</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G79" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>7856669446</v>
       </c>
       <c r="B80" t="s">
+        <v>421</v>
+      </c>
+      <c r="C80" t="s">
+        <v>422</v>
+      </c>
+      <c r="D80" t="s">
+        <v>275</v>
+      </c>
+      <c r="E80" t="s">
+        <v>423</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G80" t="s">
         <v>425</v>
       </c>
-      <c r="C80" t="s">
-        <v>426</v>
-      </c>
-      <c r="D80" t="s">
-        <v>279</v>
-      </c>
-      <c r="E80" t="s">
-        <v>427</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G80" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1020110805</v>
       </c>
       <c r="B81" t="s">
+        <v>426</v>
+      </c>
+      <c r="C81" t="s">
+        <v>427</v>
+      </c>
+      <c r="D81" t="s">
+        <v>428</v>
+      </c>
+      <c r="E81" t="s">
+        <v>429</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G81" t="s">
         <v>430</v>
       </c>
-      <c r="C81" t="s">
-        <v>431</v>
-      </c>
-      <c r="D81" t="s">
-        <v>432</v>
-      </c>
-      <c r="E81" t="s">
-        <v>433</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G81" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2755103876</v>
       </c>
       <c r="B82" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C82" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D82" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E82" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G82" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1052083854</v>
       </c>
       <c r="B83" t="s">
+        <v>435</v>
+      </c>
+      <c r="C83" t="s">
+        <v>436</v>
+      </c>
+      <c r="D83" t="s">
+        <v>437</v>
+      </c>
+      <c r="E83" t="s">
+        <v>438</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C83" t="s">
+      <c r="G83" t="s">
         <v>440</v>
       </c>
-      <c r="D83" t="s">
-        <v>441</v>
-      </c>
-      <c r="E83" t="s">
-        <v>442</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G83" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2301768481</v>
       </c>
       <c r="B84" t="s">
+        <v>441</v>
+      </c>
+      <c r="C84" t="s">
+        <v>442</v>
+      </c>
+      <c r="D84" t="s">
+        <v>443</v>
+      </c>
+      <c r="E84" t="s">
+        <v>444</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C84" t="s">
+      <c r="G84" t="s">
         <v>446</v>
       </c>
-      <c r="D84" t="s">
-        <v>447</v>
-      </c>
-      <c r="E84" t="s">
-        <v>448</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G84" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5996743728</v>
       </c>
       <c r="B85" t="s">
+        <v>447</v>
+      </c>
+      <c r="C85" t="s">
+        <v>448</v>
+      </c>
+      <c r="D85" t="s">
+        <v>449</v>
+      </c>
+      <c r="E85" t="s">
+        <v>450</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C85" t="s">
+      <c r="G85" t="s">
         <v>452</v>
       </c>
-      <c r="D85" t="s">
-        <v>453</v>
-      </c>
-      <c r="E85" t="s">
-        <v>454</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G85" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3850173011</v>
       </c>
       <c r="B86" t="s">
+        <v>453</v>
+      </c>
+      <c r="C86" t="s">
+        <v>454</v>
+      </c>
+      <c r="D86" t="s">
+        <v>455</v>
+      </c>
+      <c r="E86" t="s">
+        <v>456</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C86" t="s">
+      <c r="G86" t="s">
         <v>458</v>
       </c>
-      <c r="D86" t="s">
-        <v>459</v>
-      </c>
-      <c r="E86" t="s">
-        <v>460</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G86" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>700449493</v>
       </c>
       <c r="B87" t="s">
+        <v>459</v>
+      </c>
+      <c r="C87" t="s">
+        <v>460</v>
+      </c>
+      <c r="D87" t="s">
+        <v>461</v>
+      </c>
+      <c r="E87" t="s">
+        <v>462</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C87" t="s">
+      <c r="G87" t="s">
         <v>464</v>
       </c>
-      <c r="D87" t="s">
-        <v>465</v>
-      </c>
-      <c r="E87" t="s">
-        <v>466</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G87" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>7723553463</v>
       </c>
       <c r="B88" t="s">
+        <v>465</v>
+      </c>
+      <c r="C88" t="s">
+        <v>466</v>
+      </c>
+      <c r="D88" t="s">
+        <v>467</v>
+      </c>
+      <c r="E88" t="s">
+        <v>468</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G88" t="s">
         <v>469</v>
       </c>
-      <c r="C88" t="s">
-        <v>470</v>
-      </c>
-      <c r="D88" t="s">
-        <v>471</v>
-      </c>
-      <c r="E88" t="s">
-        <v>472</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G88" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4518028104</v>
       </c>
       <c r="B89" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C89" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D89" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E89" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G89" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5173570148</v>
       </c>
       <c r="B90" t="s">
+        <v>474</v>
+      </c>
+      <c r="C90" t="s">
+        <v>475</v>
+      </c>
+      <c r="D90" t="s">
+        <v>476</v>
+      </c>
+      <c r="E90" t="s">
+        <v>477</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C90" t="s">
+      <c r="G90" t="s">
         <v>479</v>
       </c>
-      <c r="D90" t="s">
-        <v>480</v>
-      </c>
-      <c r="E90" t="s">
-        <v>481</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G90" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6559957039</v>
       </c>
       <c r="B91" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C91" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D91" t="s">
         <v>26</v>
       </c>
       <c r="E91" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>7599798927</v>
       </c>
       <c r="B92" t="s">
+        <v>483</v>
+      </c>
+      <c r="C92" t="s">
+        <v>484</v>
+      </c>
+      <c r="D92" t="s">
+        <v>57</v>
+      </c>
+      <c r="E92" t="s">
+        <v>485</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G92" t="s">
         <v>487</v>
       </c>
-      <c r="C92" t="s">
-        <v>488</v>
-      </c>
-      <c r="D92" t="s">
-        <v>61</v>
-      </c>
-      <c r="E92" t="s">
-        <v>489</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G92" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>8448035542</v>
       </c>
       <c r="B93" t="s">
+        <v>488</v>
+      </c>
+      <c r="C93" t="s">
+        <v>489</v>
+      </c>
+      <c r="D93" t="s">
+        <v>490</v>
+      </c>
+      <c r="E93" t="s">
+        <v>491</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C93" t="s">
+      <c r="G93" t="s">
         <v>493</v>
       </c>
-      <c r="D93" t="s">
-        <v>494</v>
-      </c>
-      <c r="E93" t="s">
-        <v>495</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G93" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>8608803941</v>
       </c>
       <c r="B94" t="s">
+        <v>494</v>
+      </c>
+      <c r="C94" t="s">
+        <v>495</v>
+      </c>
+      <c r="D94" t="s">
+        <v>326</v>
+      </c>
+      <c r="E94" t="s">
+        <v>496</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G94" t="s">
         <v>498</v>
       </c>
-      <c r="C94" t="s">
-        <v>499</v>
-      </c>
-      <c r="D94" t="s">
-        <v>330</v>
-      </c>
-      <c r="E94" t="s">
-        <v>500</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G94" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>6558954931</v>
       </c>
       <c r="B95" t="s">
+        <v>499</v>
+      </c>
+      <c r="C95" t="s">
+        <v>500</v>
+      </c>
+      <c r="D95" t="s">
+        <v>501</v>
+      </c>
+      <c r="E95" t="s">
+        <v>502</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G95" t="s">
         <v>503</v>
       </c>
-      <c r="C95" t="s">
-        <v>504</v>
-      </c>
-      <c r="D95" t="s">
-        <v>505</v>
-      </c>
-      <c r="E95" t="s">
-        <v>506</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G95" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5871365167</v>
       </c>
       <c r="B96" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C96" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D96" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E96" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G96" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>9948935535</v>
       </c>
       <c r="B97" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C97" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D97" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E97" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G97" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8458213508</v>
       </c>
       <c r="B98" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C98" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D98" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E98" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G98" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8116163817</v>
       </c>
       <c r="B99" t="s">
+        <v>516</v>
+      </c>
+      <c r="C99" t="s">
+        <v>517</v>
+      </c>
+      <c r="D99" t="s">
+        <v>383</v>
+      </c>
+      <c r="E99" t="s">
+        <v>518</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G99" t="s">
         <v>520</v>
       </c>
-      <c r="C99" t="s">
-        <v>521</v>
-      </c>
-      <c r="D99" t="s">
-        <v>387</v>
-      </c>
-      <c r="E99" t="s">
-        <v>522</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G99" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4374204466</v>
       </c>
       <c r="B100" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C100" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D100" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E100" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G100" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>8988546385</v>
       </c>
       <c r="B101" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C101" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D101" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E101" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G101" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>7398339666</v>
       </c>
       <c r="B102" t="s">
+        <v>530</v>
+      </c>
+      <c r="C102" t="s">
+        <v>531</v>
+      </c>
+      <c r="D102" t="s">
+        <v>467</v>
+      </c>
+      <c r="E102" t="s">
+        <v>532</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G102" t="s">
         <v>534</v>
       </c>
-      <c r="C102" t="s">
-        <v>535</v>
-      </c>
-      <c r="D102" t="s">
-        <v>471</v>
-      </c>
-      <c r="E102" t="s">
-        <v>536</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G102" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>6075716793</v>
       </c>
       <c r="B103" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C103" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E103" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G103" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3905530457</v>
       </c>
       <c r="B104" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C104" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D104" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E104" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G104" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3216796434</v>
       </c>
       <c r="B105" t="s">
+        <v>543</v>
+      </c>
+      <c r="C105" t="s">
+        <v>544</v>
+      </c>
+      <c r="D105" t="s">
+        <v>545</v>
+      </c>
+      <c r="E105" t="s">
+        <v>546</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G105" t="s">
         <v>547</v>
       </c>
-      <c r="C105" t="s">
-        <v>548</v>
-      </c>
-      <c r="D105" t="s">
-        <v>549</v>
-      </c>
-      <c r="E105" t="s">
-        <v>550</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G105" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>7031855187</v>
       </c>
       <c r="B106" t="s">
+        <v>548</v>
+      </c>
+      <c r="C106" t="s">
+        <v>549</v>
+      </c>
+      <c r="D106" t="s">
+        <v>545</v>
+      </c>
+      <c r="E106" t="s">
+        <v>550</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G106" t="s">
         <v>552</v>
       </c>
-      <c r="C106" t="s">
-        <v>553</v>
-      </c>
-      <c r="D106" t="s">
-        <v>549</v>
-      </c>
-      <c r="E106" t="s">
-        <v>554</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="G106" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2885904704</v>
       </c>
       <c r="B107" t="s">
+        <v>553</v>
+      </c>
+      <c r="C107" t="s">
+        <v>554</v>
+      </c>
+      <c r="D107" t="s">
+        <v>476</v>
+      </c>
+      <c r="E107" t="s">
+        <v>555</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G107" t="s">
         <v>557</v>
       </c>
-      <c r="C107" t="s">
-        <v>558</v>
-      </c>
-      <c r="D107" t="s">
-        <v>480</v>
-      </c>
-      <c r="E107" t="s">
-        <v>559</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G107" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4541400804</v>
       </c>
       <c r="B108" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C108" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D108" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E108" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G108" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>8314443158</v>
       </c>
       <c r="B109" t="s">
+        <v>562</v>
+      </c>
+      <c r="C109" t="s">
+        <v>563</v>
+      </c>
+      <c r="D109" t="s">
+        <v>564</v>
+      </c>
+      <c r="E109" t="s">
+        <v>565</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C109" t="s">
+      <c r="G109" t="s">
         <v>567</v>
       </c>
-      <c r="D109" t="s">
-        <v>568</v>
-      </c>
-      <c r="E109" t="s">
-        <v>569</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G109" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>6428861895</v>
       </c>
       <c r="B110" t="s">
+        <v>568</v>
+      </c>
+      <c r="C110" t="s">
+        <v>569</v>
+      </c>
+      <c r="D110" t="s">
+        <v>255</v>
+      </c>
+      <c r="E110" t="s">
+        <v>570</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G110" t="s">
         <v>572</v>
       </c>
-      <c r="C110" t="s">
-        <v>573</v>
-      </c>
-      <c r="D110" t="s">
-        <v>259</v>
-      </c>
-      <c r="E110" t="s">
-        <v>574</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G110" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4141226793</v>
       </c>
       <c r="B111" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C111" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D111" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E111" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G111" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>5742352433</v>
       </c>
       <c r="B112" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C112" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D112" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E112" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G112" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4121460782</v>
       </c>
       <c r="B113" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C113" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D113" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E113" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G113" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4020992460</v>
       </c>
       <c r="B114" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C114" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D114" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E114" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G114" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>9259966582</v>
       </c>
       <c r="B115" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C115" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D115" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E115" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G115" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>4392696219</v>
       </c>
       <c r="B116" t="s">
+        <v>593</v>
+      </c>
+      <c r="C116" t="s">
+        <v>594</v>
+      </c>
+      <c r="D116" t="s">
+        <v>595</v>
+      </c>
+      <c r="E116" t="s">
+        <v>596</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G116" t="s">
         <v>597</v>
       </c>
-      <c r="C116" t="s">
-        <v>598</v>
-      </c>
-      <c r="D116" t="s">
-        <v>599</v>
-      </c>
-      <c r="E116" t="s">
-        <v>600</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G116" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1027846505</v>
       </c>
       <c r="B117" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C117" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D117" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E117" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G117" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3303270872</v>
       </c>
       <c r="B118" t="s">
+        <v>601</v>
+      </c>
+      <c r="C118" t="s">
+        <v>602</v>
+      </c>
+      <c r="D118" t="s">
+        <v>158</v>
+      </c>
+      <c r="E118" t="s">
+        <v>603</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G118" t="s">
         <v>605</v>
       </c>
-      <c r="C118" t="s">
-        <v>606</v>
-      </c>
-      <c r="D118" t="s">
-        <v>162</v>
-      </c>
-      <c r="E118" t="s">
-        <v>607</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="G118" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>5939844588</v>
       </c>
       <c r="B119" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C119" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D119" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E119" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G119" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1945550759</v>
       </c>
       <c r="B120" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C120" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D120" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E120" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G120" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>4726226533</v>
       </c>
       <c r="B121" t="s">
+        <v>614</v>
+      </c>
+      <c r="C121" t="s">
+        <v>615</v>
+      </c>
+      <c r="D121" t="s">
+        <v>125</v>
+      </c>
+      <c r="E121" t="s">
+        <v>616</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G121" t="s">
         <v>618</v>
       </c>
-      <c r="C121" t="s">
-        <v>619</v>
-      </c>
-      <c r="D121" t="s">
-        <v>129</v>
-      </c>
-      <c r="E121" t="s">
-        <v>620</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="G121" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>6849303805</v>
       </c>
       <c r="B122" t="s">
+        <v>619</v>
+      </c>
+      <c r="C122" t="s">
+        <v>620</v>
+      </c>
+      <c r="D122" t="s">
+        <v>621</v>
+      </c>
+      <c r="E122" t="s">
+        <v>622</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G122" t="s">
         <v>623</v>
       </c>
-      <c r="C122" t="s">
-        <v>624</v>
-      </c>
-      <c r="D122" t="s">
-        <v>625</v>
-      </c>
-      <c r="E122" t="s">
-        <v>626</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G122" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1434389758</v>
       </c>
       <c r="B123" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C123" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D123" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E123" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G123" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4193754510</v>
       </c>
       <c r="B124" t="s">
+        <v>628</v>
+      </c>
+      <c r="C124" t="s">
+        <v>629</v>
+      </c>
+      <c r="D124" t="s">
+        <v>630</v>
+      </c>
+      <c r="E124" t="s">
+        <v>631</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G124" t="s">
         <v>632</v>
       </c>
-      <c r="C124" t="s">
-        <v>633</v>
-      </c>
-      <c r="D124" t="s">
-        <v>634</v>
-      </c>
-      <c r="E124" t="s">
-        <v>635</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G124" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1520398824</v>
       </c>
       <c r="B125" t="s">
+        <v>633</v>
+      </c>
+      <c r="C125" t="s">
+        <v>634</v>
+      </c>
+      <c r="D125" t="s">
+        <v>57</v>
+      </c>
+      <c r="E125" t="s">
+        <v>635</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G125" t="s">
         <v>637</v>
       </c>
-      <c r="C125" t="s">
-        <v>638</v>
-      </c>
-      <c r="D125" t="s">
-        <v>61</v>
-      </c>
-      <c r="E125" t="s">
-        <v>639</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="G125" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2798949017</v>
       </c>
       <c r="B126" t="s">
+        <v>638</v>
+      </c>
+      <c r="C126" t="s">
+        <v>639</v>
+      </c>
+      <c r="D126" t="s">
+        <v>640</v>
+      </c>
+      <c r="E126" t="s">
+        <v>641</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G126" t="s">
         <v>642</v>
       </c>
-      <c r="C126" t="s">
-        <v>643</v>
-      </c>
-      <c r="D126" t="s">
-        <v>644</v>
-      </c>
-      <c r="E126" t="s">
-        <v>645</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G126" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>4078815669</v>
       </c>
       <c r="B127" t="s">
+        <v>643</v>
+      </c>
+      <c r="C127" t="s">
+        <v>644</v>
+      </c>
+      <c r="D127" t="s">
+        <v>57</v>
+      </c>
+      <c r="E127" t="s">
+        <v>645</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G127" t="s">
         <v>647</v>
       </c>
-      <c r="C127" t="s">
-        <v>648</v>
-      </c>
-      <c r="D127" t="s">
-        <v>61</v>
-      </c>
-      <c r="E127" t="s">
-        <v>649</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="G127" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>9325781018</v>
       </c>
       <c r="B128" t="s">
+        <v>648</v>
+      </c>
+      <c r="C128" t="s">
+        <v>649</v>
+      </c>
+      <c r="D128" t="s">
+        <v>260</v>
+      </c>
+      <c r="E128" t="s">
+        <v>650</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G128" t="s">
         <v>652</v>
       </c>
-      <c r="C128" t="s">
-        <v>653</v>
-      </c>
-      <c r="D128" t="s">
-        <v>264</v>
-      </c>
-      <c r="E128" t="s">
-        <v>654</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="G128" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>6229677164</v>
       </c>
       <c r="B129" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C129" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D129" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E129" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G129" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2394259221</v>
       </c>
       <c r="B130" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C130" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D130" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E130" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G130" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>5599063836</v>
       </c>
       <c r="B131" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C131" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D131" t="s">
         <v>26</v>
       </c>
       <c r="E131" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G131" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>9573847086</v>
       </c>
       <c r="B132" t="s">
+        <v>665</v>
+      </c>
+      <c r="C132" t="s">
+        <v>666</v>
+      </c>
+      <c r="D132" t="s">
+        <v>291</v>
+      </c>
+      <c r="E132" t="s">
+        <v>667</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G132" t="s">
         <v>669</v>
       </c>
-      <c r="C132" t="s">
-        <v>670</v>
-      </c>
-      <c r="D132" t="s">
-        <v>295</v>
-      </c>
-      <c r="E132" t="s">
-        <v>671</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="G132" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2986730140</v>
       </c>
       <c r="B133" t="s">
+        <v>670</v>
+      </c>
+      <c r="C133" t="s">
+        <v>671</v>
+      </c>
+      <c r="D133" t="s">
+        <v>672</v>
+      </c>
+      <c r="E133" t="s">
+        <v>673</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G133" t="s">
         <v>674</v>
       </c>
-      <c r="C133" t="s">
-        <v>675</v>
-      </c>
-      <c r="D133" t="s">
-        <v>676</v>
-      </c>
-      <c r="E133" t="s">
-        <v>677</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G133" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>233153195</v>
       </c>
       <c r="B134" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C134" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D134" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E134" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G134" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3541864524</v>
       </c>
       <c r="B135" t="s">
+        <v>679</v>
+      </c>
+      <c r="C135" t="s">
+        <v>680</v>
+      </c>
+      <c r="D135" t="s">
+        <v>681</v>
+      </c>
+      <c r="E135" t="s">
+        <v>682</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G135" t="s">
         <v>683</v>
       </c>
-      <c r="C135" t="s">
-        <v>684</v>
-      </c>
-      <c r="D135" t="s">
-        <v>685</v>
-      </c>
-      <c r="E135" t="s">
-        <v>686</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G135" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3040627325</v>
       </c>
       <c r="B136" t="s">
+        <v>684</v>
+      </c>
+      <c r="C136" t="s">
+        <v>685</v>
+      </c>
+      <c r="D136" t="s">
+        <v>686</v>
+      </c>
+      <c r="E136" t="s">
+        <v>687</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G136" t="s">
         <v>688</v>
       </c>
-      <c r="C136" t="s">
-        <v>689</v>
-      </c>
-      <c r="D136" t="s">
-        <v>690</v>
-      </c>
-      <c r="E136" t="s">
-        <v>691</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G136" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>4837086306</v>
       </c>
       <c r="B137" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C137" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D137" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E137" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G137" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>7985250212</v>
       </c>
       <c r="B138" t="s">
+        <v>693</v>
+      </c>
+      <c r="C138" t="s">
+        <v>694</v>
+      </c>
+      <c r="D138" t="s">
+        <v>370</v>
+      </c>
+      <c r="E138" t="s">
+        <v>695</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G138" t="s">
         <v>697</v>
       </c>
-      <c r="C138" t="s">
-        <v>698</v>
-      </c>
-      <c r="D138" t="s">
-        <v>374</v>
-      </c>
-      <c r="E138" t="s">
-        <v>699</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="G138" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>6448079211</v>
       </c>
       <c r="B139" t="s">
+        <v>698</v>
+      </c>
+      <c r="C139" t="s">
+        <v>699</v>
+      </c>
+      <c r="D139" t="s">
+        <v>700</v>
+      </c>
+      <c r="E139" t="s">
+        <v>701</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C139" t="s">
+      <c r="G139" t="s">
         <v>703</v>
       </c>
-      <c r="D139" t="s">
-        <v>704</v>
-      </c>
-      <c r="E139" t="s">
-        <v>705</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="G139" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1515875199</v>
       </c>
       <c r="B140" t="s">
+        <v>704</v>
+      </c>
+      <c r="C140" t="s">
+        <v>705</v>
+      </c>
+      <c r="D140" t="s">
+        <v>706</v>
+      </c>
+      <c r="E140" t="s">
+        <v>707</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G140" t="s">
         <v>708</v>
       </c>
-      <c r="C140" t="s">
-        <v>709</v>
-      </c>
-      <c r="D140" t="s">
-        <v>710</v>
-      </c>
-      <c r="E140" t="s">
-        <v>711</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G140" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>5816911899</v>
       </c>
       <c r="B141" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C141" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D141" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E141" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G141" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1137201517</v>
       </c>
       <c r="B142" t="s">
+        <v>713</v>
+      </c>
+      <c r="C142" t="s">
+        <v>714</v>
+      </c>
+      <c r="D142" t="s">
+        <v>715</v>
+      </c>
+      <c r="E142" t="s">
+        <v>716</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" t="s">
         <v>717</v>
       </c>
-      <c r="C142" t="s">
-        <v>718</v>
-      </c>
-      <c r="D142" t="s">
-        <v>719</v>
-      </c>
-      <c r="E142" t="s">
-        <v>720</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G142" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>562074260</v>
       </c>
       <c r="B143" t="s">
+        <v>718</v>
+      </c>
+      <c r="C143" t="s">
+        <v>719</v>
+      </c>
+      <c r="D143" t="s">
+        <v>720</v>
+      </c>
+      <c r="E143" t="s">
+        <v>721</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G143" t="s">
         <v>722</v>
       </c>
-      <c r="C143" t="s">
-        <v>723</v>
-      </c>
-      <c r="D143" t="s">
-        <v>724</v>
-      </c>
-      <c r="E143" t="s">
-        <v>725</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G143" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2124420089</v>
       </c>
       <c r="B144" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C144" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D144" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E144" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G144" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3811020757</v>
       </c>
       <c r="B145" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C145" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D145" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E145" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G145" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1503776433</v>
       </c>
       <c r="B146" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C146" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D146" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E146" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G146" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>7201996665</v>
       </c>
       <c r="B147" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C147" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D147" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E147" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G147" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1925192091</v>
       </c>
       <c r="B148" t="s">
+        <v>739</v>
+      </c>
+      <c r="C148" t="s">
+        <v>740</v>
+      </c>
+      <c r="D148" t="s">
+        <v>741</v>
+      </c>
+      <c r="E148" t="s">
+        <v>742</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C148" t="s">
+      <c r="G148" t="s">
         <v>744</v>
       </c>
-      <c r="D148" t="s">
-        <v>745</v>
-      </c>
-      <c r="E148" t="s">
-        <v>746</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="G148" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>9531812152</v>
       </c>
       <c r="B149" t="s">
+        <v>745</v>
+      </c>
+      <c r="C149" t="s">
+        <v>746</v>
+      </c>
+      <c r="D149" t="s">
+        <v>747</v>
+      </c>
+      <c r="E149" t="s">
+        <v>748</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G149" t="s">
         <v>749</v>
       </c>
-      <c r="C149" t="s">
-        <v>750</v>
-      </c>
-      <c r="D149" t="s">
-        <v>751</v>
-      </c>
-      <c r="E149" t="s">
-        <v>752</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G149" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>9126584166</v>
       </c>
       <c r="B150" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C150" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D150" t="s">
         <v>26</v>
       </c>
       <c r="E150" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G150" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>8096066234</v>
       </c>
       <c r="B151" t="s">
+        <v>754</v>
+      </c>
+      <c r="C151" t="s">
+        <v>755</v>
+      </c>
+      <c r="D151" t="s">
+        <v>311</v>
+      </c>
+      <c r="E151" t="s">
+        <v>756</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G151" t="s">
         <v>758</v>
       </c>
-      <c r="C151" t="s">
-        <v>759</v>
-      </c>
-      <c r="D151" t="s">
-        <v>315</v>
-      </c>
-      <c r="E151" t="s">
-        <v>760</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="G151" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>9235176379</v>
       </c>
       <c r="B152" t="s">
+        <v>759</v>
+      </c>
+      <c r="C152" t="s">
+        <v>760</v>
+      </c>
+      <c r="D152" t="s">
+        <v>332</v>
+      </c>
+      <c r="E152" t="s">
+        <v>761</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G152" t="s">
         <v>763</v>
       </c>
-      <c r="C152" t="s">
-        <v>764</v>
-      </c>
-      <c r="D152" t="s">
-        <v>336</v>
-      </c>
-      <c r="E152" t="s">
-        <v>765</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="G152" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>5847497288</v>
       </c>
       <c r="B153" t="s">
+        <v>764</v>
+      </c>
+      <c r="C153" t="s">
+        <v>765</v>
+      </c>
+      <c r="D153" t="s">
+        <v>766</v>
+      </c>
+      <c r="E153" t="s">
+        <v>767</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G153" t="s">
         <v>768</v>
       </c>
-      <c r="C153" t="s">
-        <v>769</v>
-      </c>
-      <c r="D153" t="s">
-        <v>770</v>
-      </c>
-      <c r="E153" t="s">
-        <v>771</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G153" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2824495650</v>
       </c>
       <c r="B154" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C154" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D154" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E154" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G154" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>7412591959</v>
       </c>
       <c r="B155" t="s">
+        <v>773</v>
+      </c>
+      <c r="C155" t="s">
+        <v>774</v>
+      </c>
+      <c r="D155" t="s">
+        <v>775</v>
+      </c>
+      <c r="E155" t="s">
+        <v>776</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G155" t="s">
         <v>777</v>
       </c>
-      <c r="C155" t="s">
-        <v>778</v>
-      </c>
-      <c r="D155" t="s">
-        <v>779</v>
-      </c>
-      <c r="E155" t="s">
-        <v>780</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G155" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>719671302</v>
       </c>
       <c r="B156" t="s">
+        <v>778</v>
+      </c>
+      <c r="C156" t="s">
+        <v>779</v>
+      </c>
+      <c r="D156" t="s">
+        <v>780</v>
+      </c>
+      <c r="E156" t="s">
+        <v>781</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G156" t="s">
         <v>782</v>
       </c>
-      <c r="C156" t="s">
-        <v>783</v>
-      </c>
-      <c r="D156" t="s">
-        <v>784</v>
-      </c>
-      <c r="E156" t="s">
-        <v>785</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G156" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>3282145756</v>
       </c>
       <c r="B157" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C157" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D157" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E157" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G157" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2163794903</v>
       </c>
       <c r="B158" t="s">
+        <v>788</v>
+      </c>
+      <c r="C158" t="s">
+        <v>789</v>
+      </c>
+      <c r="D158" t="s">
+        <v>790</v>
+      </c>
+      <c r="E158" t="s">
+        <v>791</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G158" t="s">
         <v>792</v>
       </c>
-      <c r="C158" t="s">
-        <v>793</v>
-      </c>
-      <c r="D158" t="s">
-        <v>794</v>
-      </c>
-      <c r="E158" t="s">
-        <v>795</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G158" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>329036556</v>
       </c>
       <c r="B159" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C159" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D159" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E159" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G159" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>6321474002</v>
       </c>
       <c r="B160" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C160" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D160" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E160" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G160" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1337476595</v>
       </c>
       <c r="B161" t="s">
+        <v>801</v>
+      </c>
+      <c r="C161" t="s">
+        <v>802</v>
+      </c>
+      <c r="D161" t="s">
+        <v>720</v>
+      </c>
+      <c r="E161" t="s">
+        <v>803</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="G161" t="s">
         <v>805</v>
       </c>
-      <c r="C161" t="s">
-        <v>806</v>
-      </c>
-      <c r="D161" t="s">
-        <v>724</v>
-      </c>
-      <c r="E161" t="s">
-        <v>807</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="G161" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2149869748</v>
       </c>
       <c r="B162" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C162" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D162" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E162" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G162" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>7997651691</v>
       </c>
       <c r="B163" t="s">
+        <v>810</v>
+      </c>
+      <c r="C163" t="s">
+        <v>811</v>
+      </c>
+      <c r="D163" t="s">
+        <v>812</v>
+      </c>
+      <c r="E163" t="s">
+        <v>813</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G163" t="s">
         <v>814</v>
       </c>
-      <c r="C163" t="s">
-        <v>815</v>
-      </c>
-      <c r="D163" t="s">
-        <v>816</v>
-      </c>
-      <c r="E163" t="s">
-        <v>817</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G163" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2872592881</v>
       </c>
       <c r="B164" t="s">
+        <v>815</v>
+      </c>
+      <c r="C164" t="s">
+        <v>816</v>
+      </c>
+      <c r="D164" t="s">
+        <v>817</v>
+      </c>
+      <c r="E164" t="s">
+        <v>818</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C164" t="s">
+      <c r="G164" t="s">
         <v>820</v>
       </c>
-      <c r="D164" t="s">
-        <v>821</v>
-      </c>
-      <c r="E164" t="s">
-        <v>822</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="G164" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1612978592</v>
       </c>
       <c r="B165" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C165" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D165" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E165" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G165" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>4876440468</v>
       </c>
       <c r="B166" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C166" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D166" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E166" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G166" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>245814922</v>
       </c>
       <c r="B167" t="s">
+        <v>829</v>
+      </c>
+      <c r="C167" t="s">
+        <v>830</v>
+      </c>
+      <c r="D167" t="s">
+        <v>831</v>
+      </c>
+      <c r="E167" t="s">
+        <v>832</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G167" t="s">
         <v>833</v>
       </c>
-      <c r="C167" t="s">
-        <v>834</v>
-      </c>
-      <c r="D167" t="s">
-        <v>835</v>
-      </c>
-      <c r="E167" t="s">
-        <v>836</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G167" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>5136018674</v>
       </c>
       <c r="B168" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C168" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D168" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E168" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>98890859</v>
       </c>
       <c r="B169" t="s">
+        <v>838</v>
+      </c>
+      <c r="C169" t="s">
+        <v>839</v>
+      </c>
+      <c r="D169" t="s">
+        <v>840</v>
+      </c>
+      <c r="E169" t="s">
+        <v>841</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G169" t="s">
         <v>842</v>
       </c>
-      <c r="C169" t="s">
-        <v>843</v>
-      </c>
-      <c r="D169" t="s">
-        <v>844</v>
-      </c>
-      <c r="E169" t="s">
-        <v>845</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="G169" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1296733793</v>
       </c>
       <c r="B170" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C170" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D170" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E170" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G170" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>6967731351</v>
       </c>
       <c r="B171" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C171" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D171" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E171" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G171" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>8435349799</v>
       </c>
       <c r="B172" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C172" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D172" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E172" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G172" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>9961711696</v>
       </c>
       <c r="B173" t="s">
+        <v>855</v>
+      </c>
+      <c r="C173" t="s">
+        <v>856</v>
+      </c>
+      <c r="D173" t="s">
+        <v>857</v>
+      </c>
+      <c r="E173" t="s">
+        <v>858</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C173" t="s">
+      <c r="G173" t="s">
         <v>860</v>
       </c>
-      <c r="D173" t="s">
-        <v>861</v>
-      </c>
-      <c r="E173" t="s">
-        <v>862</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="G173" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2290269980</v>
       </c>
       <c r="B174" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C174" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D174" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E174" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G174" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1724675753</v>
       </c>
       <c r="B175" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C175" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D175" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E175" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G175" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>121844595</v>
       </c>
       <c r="B176" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C176" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D176" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E176" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G176" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>7657208775</v>
       </c>
       <c r="B177" t="s">
+        <v>873</v>
+      </c>
+      <c r="C177" t="s">
+        <v>874</v>
+      </c>
+      <c r="D177" t="s">
+        <v>875</v>
+      </c>
+      <c r="E177" t="s">
+        <v>876</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G177" t="s">
         <v>877</v>
       </c>
-      <c r="C177" t="s">
-        <v>878</v>
-      </c>
-      <c r="D177" t="s">
-        <v>879</v>
-      </c>
-      <c r="E177" t="s">
-        <v>880</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G177" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>6937361203</v>
       </c>
       <c r="B178" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C178" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D178" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G178" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>337743584</v>
       </c>
       <c r="B179" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C179" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D179" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E179" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G179" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>7066960904</v>
       </c>
       <c r="B180" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C180" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D180" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E180" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G180" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>792393236</v>
       </c>
       <c r="B181" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C181" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D181" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E181" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G181" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>9903102267</v>
       </c>
       <c r="B182" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C182" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D182" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E182" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G182" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>9924938178</v>
       </c>
       <c r="B183" t="s">
+        <v>899</v>
+      </c>
+      <c r="C183" t="s">
+        <v>900</v>
+      </c>
+      <c r="D183" t="s">
+        <v>901</v>
+      </c>
+      <c r="E183" t="s">
+        <v>349</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="G183" t="s">
         <v>903</v>
       </c>
-      <c r="C183" t="s">
-        <v>904</v>
-      </c>
-      <c r="D183" t="s">
-        <v>905</v>
-      </c>
-      <c r="E183" t="s">
-        <v>353</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="G183" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2287633472</v>
       </c>
       <c r="B184" t="s">
+        <v>904</v>
+      </c>
+      <c r="C184" t="s">
+        <v>905</v>
+      </c>
+      <c r="D184" t="s">
+        <v>906</v>
+      </c>
+      <c r="E184" t="s">
+        <v>907</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="G184" t="s">
         <v>908</v>
       </c>
-      <c r="C184" t="s">
-        <v>909</v>
-      </c>
-      <c r="D184" t="s">
-        <v>910</v>
-      </c>
-      <c r="E184" t="s">
-        <v>911</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="G184" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>8902086844</v>
       </c>
       <c r="B185" t="s">
+        <v>909</v>
+      </c>
+      <c r="C185" t="s">
+        <v>910</v>
+      </c>
+      <c r="D185" t="s">
+        <v>911</v>
+      </c>
+      <c r="E185" t="s">
+        <v>912</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G185" t="s">
         <v>913</v>
       </c>
-      <c r="C185" t="s">
-        <v>914</v>
-      </c>
-      <c r="D185" t="s">
-        <v>915</v>
-      </c>
-      <c r="E185" t="s">
-        <v>916</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G185" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>5457591026</v>
       </c>
       <c r="B186" t="s">
+        <v>914</v>
+      </c>
+      <c r="C186" t="s">
+        <v>915</v>
+      </c>
+      <c r="D186" t="s">
+        <v>916</v>
+      </c>
+      <c r="E186" t="s">
+        <v>917</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G186" t="s">
         <v>918</v>
       </c>
-      <c r="C186" t="s">
-        <v>919</v>
-      </c>
-      <c r="D186" t="s">
-        <v>920</v>
-      </c>
-      <c r="E186" t="s">
-        <v>921</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G186" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2681499410</v>
       </c>
       <c r="B187" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C187" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D187" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E187" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G187" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>5293778854</v>
       </c>
       <c r="B188" t="s">
+        <v>923</v>
+      </c>
+      <c r="C188" t="s">
+        <v>924</v>
+      </c>
+      <c r="D188" t="s">
+        <v>925</v>
+      </c>
+      <c r="E188" t="s">
+        <v>926</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G188" t="s">
         <v>927</v>
       </c>
-      <c r="C188" t="s">
-        <v>928</v>
-      </c>
-      <c r="D188" t="s">
-        <v>929</v>
-      </c>
-      <c r="E188" t="s">
-        <v>930</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G188" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>9002449313</v>
       </c>
       <c r="B189" t="s">
+        <v>928</v>
+      </c>
+      <c r="C189" t="s">
+        <v>929</v>
+      </c>
+      <c r="D189" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" t="s">
+        <v>930</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="G189" t="s">
         <v>932</v>
       </c>
-      <c r="C189" t="s">
-        <v>933</v>
-      </c>
-      <c r="D189" t="s">
-        <v>38</v>
-      </c>
-      <c r="E189" t="s">
-        <v>934</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="G189" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>7819182288</v>
       </c>
       <c r="B190" t="s">
+        <v>933</v>
+      </c>
+      <c r="C190" t="s">
+        <v>934</v>
+      </c>
+      <c r="D190" t="s">
+        <v>935</v>
+      </c>
+      <c r="E190" t="s">
+        <v>936</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C190" t="s">
+      <c r="G190" t="s">
         <v>938</v>
       </c>
-      <c r="D190" t="s">
-        <v>939</v>
-      </c>
-      <c r="E190" t="s">
-        <v>940</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="G190" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4021465626</v>
       </c>
       <c r="B191" t="s">
+        <v>939</v>
+      </c>
+      <c r="C191" t="s">
+        <v>940</v>
+      </c>
+      <c r="D191" t="s">
+        <v>941</v>
+      </c>
+      <c r="E191" t="s">
+        <v>942</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G191" t="s">
         <v>943</v>
       </c>
-      <c r="C191" t="s">
-        <v>944</v>
-      </c>
-      <c r="D191" t="s">
-        <v>945</v>
-      </c>
-      <c r="E191" t="s">
-        <v>946</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G191" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>8879408607</v>
       </c>
       <c r="B192" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C192" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D192" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E192" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G192" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2513634667</v>
       </c>
       <c r="B193" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C193" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D193" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E193" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G193" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>8416374147</v>
       </c>
       <c r="B194" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C194" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D194" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E194" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G194" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>4861436729</v>
       </c>
       <c r="B195" t="s">
+        <v>956</v>
+      </c>
+      <c r="C195" t="s">
+        <v>957</v>
+      </c>
+      <c r="D195" t="s">
+        <v>958</v>
+      </c>
+      <c r="E195" t="s">
+        <v>959</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G195" t="s">
         <v>960</v>
       </c>
-      <c r="C195" t="s">
-        <v>961</v>
-      </c>
-      <c r="D195" t="s">
-        <v>962</v>
-      </c>
-      <c r="E195" t="s">
-        <v>963</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G195" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>9514484657</v>
       </c>
       <c r="B196" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C196" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D196" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E196" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G196" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>8435313417</v>
       </c>
       <c r="B197" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C197" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D197" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E197" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G197" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>9980362332</v>
       </c>
       <c r="B198" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C198" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D198" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E198" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G198" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>623630389</v>
       </c>
       <c r="B199" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C199" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D199" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E199" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G199" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>5134246173</v>
       </c>
       <c r="B200" t="s">
+        <v>977</v>
+      </c>
+      <c r="C200" t="s">
+        <v>978</v>
+      </c>
+      <c r="D200" t="s">
+        <v>979</v>
+      </c>
+      <c r="E200" t="s">
+        <v>980</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G200" t="s">
         <v>981</v>
       </c>
-      <c r="C200" t="s">
-        <v>982</v>
-      </c>
-      <c r="D200" t="s">
-        <v>983</v>
-      </c>
-      <c r="E200" t="s">
-        <v>984</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G200" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>6438718955</v>
       </c>
       <c r="B201" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C201" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D201" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E201" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G201" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F202" s="1"/>
     </row>
   </sheetData>
